--- a/exec/src.xlsx
+++ b/exec/src.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fengcheng/IdeaProjects/handleExcel/exec/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\研发费用分配工具\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D463801-E812-4E49-AD9C-3FE11207240D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3948EB-67C8-4FB0-A2D8-5AA0EC102038}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" tabRatio="840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="项目成本" sheetId="2" r:id="rId1"/>
     <sheet name="记账费用" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>序号</t>
   </si>
@@ -56,10 +56,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>直接投入</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>其他</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -72,20 +68,25 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>A项目</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>B项目</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>C项目</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>人员人工费用</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <t>可移动文物管理系统的开发</t>
+  </si>
+  <si>
+    <t>客流监测预警系统的开发</t>
+  </si>
+  <si>
+    <t>博物馆综合信息管理系统的开发</t>
+  </si>
+  <si>
+    <t>数字资源管理系统的开发</t>
+  </si>
+  <si>
+    <t>遗产地综合信息管理系统的开发</t>
+  </si>
+  <si>
+    <t>文物综合监测系统的开发</t>
+  </si>
+  <si>
+    <t>文物保护远程咨询及协同共享服务系统的开发</t>
   </si>
 </sst>
 </file>
@@ -93,9 +94,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -186,7 +187,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -209,17 +210,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -232,7 +244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -241,15 +253,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="40" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -258,6 +264,33 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -536,116 +569,209 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.81640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" style="3"/>
-    <col min="2" max="2" width="30.6640625" style="3" customWidth="1"/>
-    <col min="3" max="4" width="33" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.83203125" style="3"/>
+    <col min="1" max="1" width="9.81640625" style="3"/>
+    <col min="2" max="2" width="43.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.36328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.81640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="C2" s="9">
+        <v>43745</v>
+      </c>
+      <c r="D2" s="9">
+        <v>43845</v>
+      </c>
+      <c r="E2" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="16">
-      <c r="A2" s="10">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="11">
-        <v>43862</v>
-      </c>
-      <c r="D2" s="11">
-        <v>44105</v>
-      </c>
-      <c r="E2" s="12">
+      <c r="C3" s="9">
+        <v>43785</v>
+      </c>
+      <c r="D3" s="9">
+        <v>43906</v>
+      </c>
+      <c r="E3" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="9">
+        <v>43791</v>
+      </c>
+      <c r="D4" s="9">
+        <v>44116</v>
+      </c>
+      <c r="E4" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="16">
+        <v>43813</v>
+      </c>
+      <c r="D5" s="16">
+        <v>43980</v>
+      </c>
+      <c r="E5" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="16">
-      <c r="A3" s="10">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="11">
-        <v>43891</v>
-      </c>
-      <c r="D3" s="11">
-        <v>43952</v>
-      </c>
-      <c r="E3" s="12">
+      <c r="B6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="16">
+        <v>43899</v>
+      </c>
+      <c r="D6" s="16">
+        <v>44027</v>
+      </c>
+      <c r="E6" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16">
-      <c r="A4" s="10">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="11">
-        <v>43831</v>
-      </c>
-      <c r="D4" s="11">
-        <v>44166</v>
-      </c>
-      <c r="E4" s="12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="B10" s="9"/>
+    <row r="7" spans="1:5" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="16">
+        <v>43996</v>
+      </c>
+      <c r="D7" s="16">
+        <v>44147</v>
+      </c>
+      <c r="E7" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="16">
+        <v>44024</v>
+      </c>
+      <c r="D8" s="16">
+        <v>44196</v>
+      </c>
+      <c r="E8" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="23" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.1796875" style="3" customWidth="1"/>
     <col min="4" max="4" width="20" style="3" customWidth="1"/>
     <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -656,207 +782,132 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>43831</v>
+        <v>43780</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C2" s="4">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>5822.72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>43862</v>
+        <v>43789</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="4">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>43891</v>
+        <v>43809</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="4">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2">
-        <v>43922</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2">
-        <v>43952</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="4">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2">
-        <v>43983</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2">
-        <v>44013</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2">
-        <v>44044</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="4">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2">
-        <v>44075</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="4">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2">
-        <v>44105</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="4">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2">
-        <v>44136</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="4">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2">
-        <v>44166</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="4">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2">
-        <v>43835</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="4">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2">
-        <v>43968</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="4">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2">
-        <v>43837</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="4">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2">
-        <v>43926</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="4">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2">
-        <v>44000</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="4">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2">
-        <v>44020</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="4">
-        <v>5000</v>
-      </c>
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/exec/src.xlsx
+++ b/exec/src.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\研发费用分配工具\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fengcheng/IdeaProjects/handleExcel/exec/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3948EB-67C8-4FB0-A2D8-5AA0EC102038}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA94CC5-B201-544B-88E8-636FD53EB8C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10420" tabRatio="840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="项目成本" sheetId="2" r:id="rId1"/>
@@ -93,10 +93,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -227,11 +228,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -244,7 +245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -271,7 +272,7 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -291,6 +292,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -571,20 +575,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" style="3"/>
-    <col min="2" max="2" width="43.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.36328125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.81640625" style="3"/>
+    <col min="1" max="1" width="9.83203125" style="3"/>
+    <col min="2" max="2" width="43.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="5" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -601,7 +605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="16">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -618,7 +622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="16">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -635,7 +639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="16">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -652,7 +656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="16">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -669,7 +673,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="16">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -686,7 +690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="16">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -703,7 +707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="16">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -720,28 +724,28 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15">
       <c r="A9" s="8"/>
       <c r="B9" s="18"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="E9" s="17"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="17"/>
       <c r="B10" s="19"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
       <c r="E10" s="17"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="17"/>
       <c r="B11" s="18"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
       <c r="E11" s="17"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="17"/>
       <c r="B12" s="18"/>
       <c r="C12" s="16"/>
@@ -759,19 +763,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="23" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.1796875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="20" style="3" customWidth="1"/>
     <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,8 +786,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:3">
+      <c r="A2" s="20">
         <v>43780</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -793,8 +797,8 @@
         <v>5822.72</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:3">
+      <c r="A3" s="20">
         <v>43789</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -804,8 +808,8 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:3">
+      <c r="A4" s="20">
         <v>43809</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -815,92 +819,92 @@
         <v>8800</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="11"/>
       <c r="B20" s="12"/>
       <c r="C20" s="13"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="C21" s="13"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="11"/>
       <c r="B22" s="12"/>
       <c r="C22" s="13"/>

--- a/exec/src.xlsx
+++ b/exec/src.xlsx
@@ -8,25 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fengcheng/IdeaProjects/handleExcel/exec/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA94CC5-B201-544B-88E8-636FD53EB8C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6ABB82-2553-B44D-B5A8-367EE472DC2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10420" tabRatio="840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12240" yWindow="2400" windowWidth="19420" windowHeight="10420" tabRatio="840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="项目成本" sheetId="2" r:id="rId1"/>
     <sheet name="记账费用" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">记账费用!$A$1:$I$11</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>序号</t>
   </si>
   <si>
     <t>项目名称</t>
+  </si>
+  <si>
+    <t>开始时间</t>
+  </si>
+  <si>
+    <t>结束时间</t>
   </si>
   <si>
     <t>人数</t>
@@ -45,48 +54,79 @@
     </r>
   </si>
   <si>
+    <t>类别</t>
+  </si>
+  <si>
     <t>小计</t>
   </si>
   <si>
-    <t>类别</t>
+    <t>RD01</t>
+  </si>
+  <si>
+    <t>RD02</t>
+  </si>
+  <si>
+    <t>RD03</t>
+  </si>
+  <si>
+    <t>RD04</t>
+  </si>
+  <si>
+    <t>RD05</t>
+  </si>
+  <si>
+    <t>RD06</t>
+  </si>
+  <si>
+    <t>RD07</t>
+  </si>
+  <si>
+    <t>RD08</t>
+  </si>
+  <si>
+    <t>RD09</t>
+  </si>
+  <si>
+    <t>氯酸钠电解槽研发项目</t>
+  </si>
+  <si>
+    <t>氯酸钠结晶罐搅拌技术研发项目</t>
+  </si>
+  <si>
+    <t>氯酸钠用高效电解电极技术研发项目</t>
+  </si>
+  <si>
+    <t>高氯酸钾干燥技术研发项目</t>
+  </si>
+  <si>
+    <t>高氯酸钾母液蒸发浓缩研发项目</t>
+  </si>
+  <si>
+    <t>高氯酸钾废盐水浓缩蒸发技术研发项目</t>
+  </si>
+  <si>
+    <t>高氯酸钾高效预热技术研发项目</t>
+  </si>
+  <si>
+    <t>高氯酸钾定量分装技术研发项目</t>
+  </si>
+  <si>
+    <t>氯酸钠晶体化料技术研发项目</t>
+  </si>
+  <si>
+    <t>职工工资</t>
+  </si>
+  <si>
+    <t>凭证号</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>摘要</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>人员人工</t>
     <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束时间</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>可移动文物管理系统的开发</t>
-  </si>
-  <si>
-    <t>客流监测预警系统的开发</t>
-  </si>
-  <si>
-    <t>博物馆综合信息管理系统的开发</t>
-  </si>
-  <si>
-    <t>数字资源管理系统的开发</t>
-  </si>
-  <si>
-    <t>遗产地综合信息管理系统的开发</t>
-  </si>
-  <si>
-    <t>文物综合监测系统的开发</t>
-  </si>
-  <si>
-    <t>文物保护远程咨询及协同共享服务系统的开发</t>
   </si>
 </sst>
 </file>
@@ -95,9 +135,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -113,19 +153,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <sz val="14"/>
+      <name val="仿宋"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
@@ -149,12 +180,10 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
+      <sz val="14"/>
+      <name val="仿宋"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -165,6 +194,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="新宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
@@ -178,6 +214,30 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -188,7 +248,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -211,96 +271,106 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="8" fillId="0" borderId="1" applyFill="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="40" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="6">
+    <cellStyle name="amountBalanceD" xfId="4" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="madeDateD" xfId="3" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Normal" xfId="5" xr:uid="{6936266F-D5AB-461E-B330-E4E68E43E06A}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="千位分隔" xfId="2" builtinId="3"/>
+    <cellStyle name="常规 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -573,184 +643,246 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" style="3"/>
-    <col min="2" max="2" width="43.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.83203125" style="3"/>
+    <col min="1" max="1" width="9.83203125" style="1"/>
+    <col min="2" max="2" width="41.6640625" style="4" customWidth="1"/>
+    <col min="3" max="4" width="14.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1">
+    <row r="1" spans="1:5" s="4" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17">
+      <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="B2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="23">
+        <v>43101</v>
+      </c>
+      <c r="D2" s="23">
+        <v>43251</v>
+      </c>
+      <c r="E2" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17">
+      <c r="A3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="16">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="B3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="23">
+        <v>43252</v>
+      </c>
+      <c r="D3" s="23">
+        <v>43465</v>
+      </c>
+      <c r="E3" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17">
+      <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="9">
-        <v>43745</v>
-      </c>
-      <c r="D2" s="9">
-        <v>43845</v>
-      </c>
-      <c r="E2" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16">
-      <c r="A3" s="8">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="B4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="24">
+        <v>43466</v>
+      </c>
+      <c r="D4" s="24">
+        <v>43555</v>
+      </c>
+      <c r="E4" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17">
+      <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="9">
-        <v>43785</v>
-      </c>
-      <c r="D3" s="9">
-        <v>43906</v>
-      </c>
-      <c r="E3" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16">
-      <c r="A4" s="8">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="B5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="24">
+        <v>43556</v>
+      </c>
+      <c r="D5" s="24">
+        <v>43677</v>
+      </c>
+      <c r="E5" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17">
+      <c r="A6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9">
-        <v>43791</v>
-      </c>
-      <c r="D4" s="9">
-        <v>44116</v>
-      </c>
-      <c r="E4" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="B6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="24">
+        <v>43678</v>
+      </c>
+      <c r="D6" s="24">
+        <v>43769</v>
+      </c>
+      <c r="E6" s="10">
         <v>13</v>
       </c>
-      <c r="C5" s="16">
-        <v>43813</v>
-      </c>
-      <c r="D5" s="16">
-        <v>43980</v>
-      </c>
-      <c r="E5" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="18" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="17">
+      <c r="A7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="23">
+        <v>43770</v>
+      </c>
+      <c r="D7" s="23">
+        <v>43889</v>
+      </c>
+      <c r="E7" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17">
+      <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="16">
-        <v>43899</v>
-      </c>
-      <c r="D6" s="16">
-        <v>44027</v>
-      </c>
-      <c r="E6" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="18" t="s">
+      <c r="B8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="23">
+        <v>43891</v>
+      </c>
+      <c r="D8" s="23">
+        <v>43982</v>
+      </c>
+      <c r="E8" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16">
+      <c r="A9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="16">
-        <v>43996</v>
-      </c>
-      <c r="D7" s="16">
-        <v>44147</v>
-      </c>
-      <c r="E7" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16">
-      <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="18" t="s">
+      <c r="B9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="25">
+        <v>43983</v>
+      </c>
+      <c r="D9" s="25">
+        <v>44104</v>
+      </c>
+      <c r="E9" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16">
+      <c r="A10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="16">
-        <v>44024</v>
-      </c>
-      <c r="D8" s="16">
+      <c r="B10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="25">
+        <v>44112</v>
+      </c>
+      <c r="D10" s="25">
         <v>44196</v>
       </c>
-      <c r="E8" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15">
-      <c r="A9" s="8"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="17"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
+      <c r="E10" s="11">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="16"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="16"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="16"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="16"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="16"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="16"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -761,153 +893,309 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="2" width="23" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="17.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="21" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="13.5" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="15">
+      <c r="A1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="22">
+        <v>43160</v>
+      </c>
+      <c r="B2" s="26">
+        <v>1</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="27">
+        <v>36544</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="22">
+        <v>43191</v>
+      </c>
+      <c r="B3" s="26">
+        <v>2</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="27">
+        <v>59151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="22">
+        <v>43221</v>
+      </c>
+      <c r="B4" s="26">
+        <v>6</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="27">
+        <v>63518</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="22">
+        <v>43252</v>
+      </c>
+      <c r="B5" s="26">
+        <v>1</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="27">
+        <v>63478</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="22">
+        <v>43282</v>
+      </c>
+      <c r="B6" s="26">
+        <v>9</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="27">
+        <v>62440</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="22">
+        <v>43313</v>
+      </c>
+      <c r="B7" s="26">
+        <v>10</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="27">
+        <v>62465</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="22">
+        <v>43344</v>
+      </c>
+      <c r="B8" s="26">
+        <v>1</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="27">
+        <v>73072</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="22">
+        <v>43374</v>
+      </c>
+      <c r="B9" s="26">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C9" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="27">
+        <v>75765</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="22">
+        <v>43405</v>
+      </c>
+      <c r="B10" s="26">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="20">
-        <v>43780</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="C10" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="27">
+        <v>74810</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="22">
+        <v>43435</v>
+      </c>
+      <c r="B11" s="26">
         <v>6</v>
       </c>
-      <c r="C2" s="4">
-        <v>5822.72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="20">
-        <v>43789</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1673</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="20">
-        <v>43809</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4">
-        <v>8800</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="4"/>
+      <c r="C11" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="27">
+        <v>75853</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="14"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="14"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="14"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="14"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="14"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="14"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="14"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="14"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="14"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="14"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="4"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="14"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="4"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="14"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="4"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="14"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="14"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="14"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="14"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="14"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="14"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="14"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="14"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="14"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="14"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="14"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="14"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="14"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="14"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="14"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="14"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="14"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="14"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="14"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
